--- a/public/sellit.xlsx
+++ b/public/sellit.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>client</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -88,6 +88,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>油色の弓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>小豆色の斧</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -157,6 +161,14 @@
   </si>
   <si>
     <t>パッションフルーツ部門</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>緑青色の矛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淡香の弓</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -888,10 +900,10 @@
         <v>15</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -899,10 +911,10 @@
         <v>15</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -910,10 +922,10 @@
         <v>15</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -924,7 +936,7 @@
         <v>21</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -932,10 +944,10 @@
         <v>15</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -946,7 +958,7 @@
         <v>22</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -954,10 +966,10 @@
         <v>15</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -968,7 +980,7 @@
         <v>23</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -976,10 +988,10 @@
         <v>15</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -990,7 +1002,7 @@
         <v>24</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -998,10 +1010,10 @@
         <v>15</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1009,10 +1021,10 @@
         <v>15</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1023,7 +1035,7 @@
         <v>8</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1031,10 +1043,10 @@
         <v>15</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1045,7 +1057,7 @@
         <v>12</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1053,10 +1065,10 @@
         <v>15</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1064,10 +1076,10 @@
         <v>15</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1075,10 +1087,10 @@
         <v>15</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1086,18 +1098,18 @@
         <v>15</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>6</v>
@@ -1105,395 +1117,395 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="C63" s="2" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B64" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="C64" s="2" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>6</v>
@@ -1501,21 +1513,21 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>6</v>
@@ -1523,76 +1535,76 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>17</v>
@@ -1600,21 +1612,21 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>17</v>
@@ -1622,21 +1634,21 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>17</v>
@@ -1644,21 +1656,21 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>17</v>
@@ -1666,21 +1678,21 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>17</v>
@@ -1688,21 +1700,21 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>17</v>
@@ -1710,21 +1722,21 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>17</v>
@@ -1732,21 +1744,21 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>17</v>
@@ -1757,10 +1769,10 @@
         <v>40</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -1768,7 +1780,7 @@
         <v>40</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>17</v>
@@ -1779,10 +1791,10 @@
         <v>40</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -1790,7 +1802,7 @@
         <v>40</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>17</v>
@@ -1798,21 +1810,21 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>17</v>
@@ -1820,21 +1832,21 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>17</v>
@@ -1842,21 +1854,21 @@
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>17</v>
@@ -1864,21 +1876,21 @@
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>17</v>
@@ -1886,21 +1898,21 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>17</v>
@@ -1908,21 +1920,21 @@
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>17</v>
@@ -1930,21 +1942,21 @@
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>17</v>
@@ -1952,21 +1964,21 @@
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>17</v>
@@ -1974,54 +1986,54 @@
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>17</v>
@@ -2029,21 +2041,21 @@
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>17</v>
@@ -2051,21 +2063,21 @@
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="134" spans="1:5">
       <c r="A134" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>17</v>
@@ -2073,21 +2085,21 @@
     </row>
     <row r="135" spans="1:5">
       <c r="A135" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>17</v>
@@ -2095,21 +2107,21 @@
     </row>
     <row r="137" spans="1:5">
       <c r="A137" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B138" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="B138" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>17</v>
@@ -2117,21 +2129,21 @@
     </row>
     <row r="139" spans="1:5">
       <c r="A139" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B139" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B139" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="C139" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="140" spans="1:5">
       <c r="A140" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>17</v>
@@ -2139,21 +2151,21 @@
     </row>
     <row r="141" spans="1:5">
       <c r="A141" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="142" spans="1:5">
       <c r="A142" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>17</v>
@@ -2161,21 +2173,21 @@
     </row>
     <row r="143" spans="1:5">
       <c r="A143" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="144" spans="1:5">
       <c r="A144" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>17</v>
@@ -2183,21 +2195,21 @@
     </row>
     <row r="145" spans="1:5">
       <c r="A145" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>17</v>
@@ -2205,21 +2217,21 @@
     </row>
     <row r="147" spans="1:5">
       <c r="A147" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="148" spans="1:5">
       <c r="A148" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>17</v>
@@ -2227,21 +2239,21 @@
     </row>
     <row r="149" spans="1:5">
       <c r="A149" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="150" spans="1:5">
       <c r="A150" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>17</v>
@@ -2249,21 +2261,21 @@
     </row>
     <row r="151" spans="1:5">
       <c r="A151" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="152" spans="1:5">
       <c r="A152" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>17</v>
@@ -2271,21 +2283,21 @@
     </row>
     <row r="153" spans="1:5">
       <c r="A153" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="154" spans="1:5">
       <c r="A154" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>17</v>
@@ -2293,21 +2305,21 @@
     </row>
     <row r="155" spans="1:5">
       <c r="A155" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="156" spans="1:5">
       <c r="A156" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>17</v>
@@ -2315,21 +2327,21 @@
     </row>
     <row r="157" spans="1:5">
       <c r="A157" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="158" spans="1:5">
       <c r="A158" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>17</v>
@@ -2337,21 +2349,21 @@
     </row>
     <row r="159" spans="1:5">
       <c r="A159" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="160" spans="1:5">
       <c r="A160" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>17</v>
@@ -2359,21 +2371,21 @@
     </row>
     <row r="161" spans="1:5">
       <c r="A161" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="162" spans="1:5">
       <c r="A162" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>17</v>
@@ -2381,21 +2393,21 @@
     </row>
     <row r="163" spans="1:5">
       <c r="A163" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="164" spans="1:5">
       <c r="A164" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>17</v>
@@ -2403,13 +2415,13 @@
     </row>
     <row r="165" spans="1:5">
       <c r="A165" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -2417,10 +2429,10 @@
         <v>46</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -2428,10 +2440,10 @@
         <v>46</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -2439,10 +2451,10 @@
         <v>46</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -2450,186 +2462,186 @@
         <v>46</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="170" spans="1:5">
       <c r="A170" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="171" spans="1:5">
       <c r="A171" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="172" spans="1:5">
       <c r="A172" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="173" spans="1:5">
       <c r="A173" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="174" spans="1:5">
       <c r="A174" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="175" spans="1:5">
       <c r="A175" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="176" spans="1:5">
       <c r="A176" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="177" spans="1:5">
       <c r="A177" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="178" spans="1:5">
       <c r="A178" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="179" spans="1:5">
       <c r="A179" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="180" spans="1:5">
       <c r="A180" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="181" spans="1:5">
       <c r="A181" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="182" spans="1:5">
       <c r="A182" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B182" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="183" spans="1:5">
       <c r="A183" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B183" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="184" spans="1:5">
       <c r="A184" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="185" spans="1:5">
       <c r="A185" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -2637,10 +2649,10 @@
         <v>49</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -2648,10 +2660,10 @@
         <v>49</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -2659,10 +2671,10 @@
         <v>49</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -2670,189 +2682,233 @@
         <v>49</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="190" spans="1:5">
       <c r="A190" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="191" spans="1:5">
       <c r="A191" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="192" spans="1:5">
       <c r="A192" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B192" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="193" spans="1:5">
       <c r="A193" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B193" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="194" spans="1:5">
       <c r="A194" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="195" spans="1:5">
       <c r="A195" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="196" spans="1:5">
       <c r="A196" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="197" spans="1:5">
       <c r="A197" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B197" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C197" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="C197" s="2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="198" spans="1:5">
       <c r="A198" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="199" spans="1:5">
       <c r="A199" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="200" spans="1:5">
       <c r="A200" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="201" spans="1:5">
       <c r="A201" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="202" spans="1:5">
       <c r="A202" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="203" spans="1:5">
       <c r="A203" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="204" spans="1:5">
       <c r="A204" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="205" spans="1:5">
       <c r="A205" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5">
+      <c r="A206" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5">
+      <c r="A207" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5">
+      <c r="A208" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5">
+      <c r="A209" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/sellit.xlsx
+++ b/public/sellit.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
   <si>
     <t>client</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -53,7 +53,87 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ブルグマンシア株式会社</t>
+    <t>ホテイアオイ商事</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>臭素界</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E級</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ツツジ商事</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>タングステン界</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ルドベキア株式会社</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ツリウム界</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ユリグループ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>サクラソウ株式会社</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>メンデレビウム界</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G級</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ボケグループ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>アインスタイニウム界</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>グラジオラスグループ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>サマリウム界</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A級</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ヒマワリ株式会社</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B級</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ヤマユリグループ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C級</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ヒメオドリコソウ商事</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -61,111 +141,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>B級</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ホテイアオイ商事</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>臭素界</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C級</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ツツジ商事</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>タングステン界</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ルドベキア株式会社</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ツリウム界</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E級</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ユリグループ</t>
+    <t>フジグループ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ベニバナコーポレーション</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F級</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ヒヤシンス商事</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ハマギクコーポレーション</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>アクチニウム界</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F級</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>サクラソウ株式会社</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>メンデレビウム界</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>G級</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ボケグループ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>アインスタイニウム界</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>グラジオラスグループ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>サマリウム界</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A級</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ヒマワリ株式会社</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ヤマユリグループ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ヒメオドリコソウ商事</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>フジグループ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ベニバナコーポレーション</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ヒヤシンス商事</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ハマギクコーポレーション</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -803,9 +799,6 @@
     <col min="1" max="1" width="24" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
     <col min="3" max="3" width="24" customWidth="1"/>
-    <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="3" width="24" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -860,139 +853,139 @@
         <v>13</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="C6" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="C17" s="1" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1000,10 +993,10 @@
         <v>37</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1011,10 +1004,10 @@
         <v>38</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1022,10 +1015,10 @@
         <v>39</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1033,10 +1026,10 @@
         <v>40</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1044,32 +1037,32 @@
         <v>41</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1080,7 +1073,7 @@
         <v>13</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1088,10 +1081,10 @@
         <v>44</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1099,10 +1092,10 @@
         <v>45</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1110,10 +1103,10 @@
         <v>46</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1121,10 +1114,10 @@
         <v>47</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1132,10 +1125,10 @@
         <v>48</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1143,10 +1136,10 @@
         <v>49</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1154,10 +1147,10 @@
         <v>50</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1165,10 +1158,10 @@
         <v>51</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1179,7 +1172,7 @@
         <v>10</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1190,7 +1183,7 @@
         <v>13</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1198,32 +1191,32 @@
         <v>54</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="1" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1231,10 +1224,10 @@
         <v>56</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1242,25 +1235,14 @@
         <v>57</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5"/>
     <row r="42" spans="1:5"/>
-    <row r="43" spans="1:5"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1300,102 +1282,102 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:3"/>

--- a/public/sellit.xlsx
+++ b/public/sellit.xlsx
@@ -89,6 +89,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>鳶色の弓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>鉛色の鎧</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -122,10 +126,6 @@
   </si>
   <si>
     <t>ユリグループ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鳶色の弓</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -706,6 +706,7 @@
     <col min="5" max="5" width="24" customWidth="1"/>
     <col min="6" max="6" width="24" customWidth="1"/>
     <col min="7" max="7" width="24" customWidth="1"/>
+    <col min="8" max="8" width="24" customWidth="1"/>
     <col min="1" max="1" width="24" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
     <col min="3" max="3" width="24" customWidth="1"/>
@@ -893,7 +894,7 @@
     <col min="5" max="5" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -907,7 +908,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -924,7 +925,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -947,7 +948,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -969,13 +970,16 @@
       <c r="G4" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="H4" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>10</v>
@@ -984,21 +988,21 @@
         <v>7</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>16</v>
@@ -1010,12 +1014,12 @@
         <v>12</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>15</v>
@@ -1030,13 +1034,13 @@
         <v>12</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
         <v>28</v>
       </c>
@@ -1053,12 +1057,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>6</v>
@@ -1070,7 +1074,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
         <v>34</v>
       </c>
@@ -1087,7 +1091,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
         <v>38</v>
       </c>
@@ -1104,7 +1108,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
         <v>40</v>
       </c>
@@ -1121,7 +1125,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
         <v>42</v>
       </c>
@@ -1138,7 +1142,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
         <v>45</v>
       </c>
@@ -1155,24 +1159,24 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
         <v>48</v>
       </c>
@@ -1189,7 +1193,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
         <v>50</v>
       </c>
@@ -1200,13 +1204,13 @@
         <v>6</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
         <v>52</v>
       </c>
@@ -1223,12 +1227,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>39</v>
@@ -1240,7 +1244,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
         <v>54</v>
       </c>
@@ -1257,7 +1261,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
         <v>55</v>
       </c>
@@ -1274,7 +1278,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
         <v>56</v>
       </c>
@@ -1291,9 +1295,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>43</v>
@@ -1308,7 +1312,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
         <v>57</v>
       </c>
@@ -1325,24 +1329,24 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
         <v>59</v>
       </c>
@@ -1359,7 +1363,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
         <v>60</v>
       </c>
@@ -1370,13 +1374,13 @@
         <v>39</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
         <v>61</v>
       </c>
@@ -1393,12 +1397,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>10</v>
@@ -1410,7 +1414,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
         <v>63</v>
       </c>
@@ -1427,7 +1431,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
         <v>64</v>
       </c>
@@ -1444,7 +1448,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
         <v>65</v>
       </c>
@@ -1461,7 +1465,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
         <v>66</v>
       </c>
@@ -1475,10 +1479,10 @@
         <v>44</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
         <v>67</v>
       </c>
@@ -1492,27 +1496,27 @@
         <v>17</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
         <v>69</v>
       </c>
@@ -1526,10 +1530,10 @@
         <v>12</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
         <v>50</v>
       </c>
@@ -1540,13 +1544,13 @@
         <v>10</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
         <v>70</v>
       </c>
@@ -1560,15 +1564,15 @@
         <v>31</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>47</v>
@@ -1577,10 +1581,10 @@
         <v>33</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
         <v>72</v>
       </c>
@@ -1594,11 +1598,11 @@
         <v>37</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9"/>
-    <row r="42" spans="1:9"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10"/>
+    <row r="42" spans="1:10"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1658,7 +1662,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1668,7 +1672,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1688,7 +1692,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1718,7 +1722,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1733,7 +1737,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:3"/>

--- a/public/sellit.xlsx
+++ b/public/sellit.xlsx
@@ -109,6 +109,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>半色の兜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>ラベンダー商事</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -130,10 +134,6 @@
   </si>
   <si>
     <t>青白橡の兜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>半色の兜</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -720,6 +720,7 @@
     <col min="3" max="3" width="24" customWidth="1"/>
     <col min="4" max="4" width="24" customWidth="1"/>
     <col min="5" max="5" width="24" customWidth="1"/>
+    <col min="6" max="6" width="24" customWidth="1"/>
     <col min="1" max="1" width="24" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
     <col min="3" max="3" width="24" customWidth="1"/>
@@ -997,36 +998,39 @@
         <v>21</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>7</v>
+      <c r="F6" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1057,7 +1061,7 @@
         <v>36</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>7</v>
@@ -1156,7 +1160,7 @@
         <v>17</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>18</v>
@@ -1187,13 +1191,13 @@
         <v>49</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>11</v>
@@ -1227,7 +1231,7 @@
         <v>42</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>15</v>
@@ -1292,7 +1296,7 @@
         <v>9</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>11</v>
@@ -1315,7 +1319,7 @@
         <v>11</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>43</v>
@@ -1327,7 +1331,7 @@
         <v>58</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1369,13 +1373,13 @@
         <v>61</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>18</v>
@@ -1409,7 +1413,7 @@
         <v>10</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>18</v>
@@ -1440,7 +1444,7 @@
         <v>41</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>43</v>
@@ -1539,13 +1543,13 @@
         <v>70</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>22</v>
@@ -1576,10 +1580,10 @@
         <v>35</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>22</v>
@@ -1685,7 +1689,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1695,7 +1699,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1735,7 +1739,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1755,7 +1759,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:3"/>
